--- a/data/trans_camb/P27A_9-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P27A_9-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,12 +680,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,7 +695,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,15 +710,45 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -685,12 +763,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,7 +778,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,15 +793,45 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -738,12 +846,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -753,7 +861,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -768,15 +876,45 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,12 +1016,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -863,7 +1031,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -878,15 +1046,45 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -901,12 +1099,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,7 +1114,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -931,15 +1129,45 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -954,12 +1182,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -969,7 +1197,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -984,15 +1212,45 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1050,6 +1308,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 0,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 0,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; -0,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-59,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-58,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-26,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-68,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1266,6 +1644,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 1,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; -1,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-19,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-23,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-50,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-27,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1937,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-72,6; 127,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-72,44; 113,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1459,7 +1957,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-83,85; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,15 +1967,45 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,12; 88,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-61,61; 111,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 8,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,37; -1,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 5,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -1,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -2,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-18,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>67,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-26,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-21,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1655,12 +2273,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-75,41; 144,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 402,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +2288,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-81,97; 153,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,34; 275,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,15 +2303,45 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-63,16; 67,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 227,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-12,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-9,59</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 2,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 6,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,44; -7,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 12,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 7,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -6,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-28,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>69,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-3,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1871,12 +2609,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-63,57; 37,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-50,67; 87,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +2624,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 135,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 234,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,15 +2639,45 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 47,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 98,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,29; -1,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -2,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-22,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2945,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-53,15; 25,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 72,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2960,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-32,55; 77,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 132,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,33 +2975,70 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 24,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 75,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
